--- a/data/pca/factorExposure/factorExposure_2016-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01074563109017138</v>
+        <v>-0.01310411020753988</v>
       </c>
       <c r="C2">
-        <v>-0.04835152477171024</v>
+        <v>0.04114799780132905</v>
       </c>
       <c r="D2">
-        <v>-0.03397159725673139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06314648423984756</v>
+      </c>
+      <c r="E2">
+        <v>-0.06798599857819133</v>
+      </c>
+      <c r="F2">
+        <v>0.06242970606321467</v>
+      </c>
+      <c r="G2">
+        <v>0.04067813285327238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04202146254277963</v>
+        <v>-0.02887723486664069</v>
       </c>
       <c r="C3">
-        <v>-0.1181980234004417</v>
+        <v>0.07939487570934368</v>
       </c>
       <c r="D3">
-        <v>-0.1023436078653896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09003617477856873</v>
+      </c>
+      <c r="E3">
+        <v>-0.06528541554846175</v>
+      </c>
+      <c r="F3">
+        <v>-0.01563945092034282</v>
+      </c>
+      <c r="G3">
+        <v>-0.03557064939307307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0607303910613391</v>
+        <v>-0.05820815512016494</v>
       </c>
       <c r="C4">
-        <v>-0.05862069774178597</v>
+        <v>0.06495190413327878</v>
       </c>
       <c r="D4">
-        <v>-0.0357428170774496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06153693157412068</v>
+      </c>
+      <c r="E4">
+        <v>-0.07028755200373973</v>
+      </c>
+      <c r="F4">
+        <v>0.07720504313296708</v>
+      </c>
+      <c r="G4">
+        <v>-0.03642329324044816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03904259924708849</v>
+        <v>-0.03564965247619904</v>
       </c>
       <c r="C6">
-        <v>-0.03999505230383864</v>
+        <v>0.03204172083970815</v>
       </c>
       <c r="D6">
-        <v>-0.03083842180905397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06451615039954291</v>
+      </c>
+      <c r="E6">
+        <v>-0.07272828169207987</v>
+      </c>
+      <c r="F6">
+        <v>0.05485294233947786</v>
+      </c>
+      <c r="G6">
+        <v>-0.02229147523173773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02080879848200943</v>
+        <v>-0.01836543404727874</v>
       </c>
       <c r="C7">
-        <v>-0.0436838844422226</v>
+        <v>0.03833273301304697</v>
       </c>
       <c r="D7">
-        <v>0.004334385610358044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03926834154901388</v>
+      </c>
+      <c r="E7">
+        <v>-0.04778752609673157</v>
+      </c>
+      <c r="F7">
+        <v>0.09789165151645796</v>
+      </c>
+      <c r="G7">
+        <v>-0.008770402474987589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003927215817113889</v>
+        <v>-0.00358096838534964</v>
       </c>
       <c r="C8">
-        <v>-0.03046057407820703</v>
+        <v>0.02988950600804693</v>
       </c>
       <c r="D8">
-        <v>-0.02448994102355278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03288321589989969</v>
+      </c>
+      <c r="E8">
+        <v>-0.04923695525299736</v>
+      </c>
+      <c r="F8">
+        <v>0.03352735309347672</v>
+      </c>
+      <c r="G8">
+        <v>-0.008130605457620118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03325306722316585</v>
+        <v>-0.03713142362864902</v>
       </c>
       <c r="C9">
-        <v>-0.04512509081658363</v>
+        <v>0.0517558536943622</v>
       </c>
       <c r="D9">
-        <v>-0.01676352516309417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04406809622083578</v>
+      </c>
+      <c r="E9">
+        <v>-0.05822204051843946</v>
+      </c>
+      <c r="F9">
+        <v>0.08200504929687384</v>
+      </c>
+      <c r="G9">
+        <v>-0.02252240947145069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07932024651317751</v>
+        <v>-0.09941902182485382</v>
       </c>
       <c r="C10">
-        <v>0.1920633687343471</v>
+        <v>-0.196051023970426</v>
       </c>
       <c r="D10">
-        <v>0.005697367326137423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.00444112792046535</v>
+      </c>
+      <c r="E10">
+        <v>-0.04436064786188584</v>
+      </c>
+      <c r="F10">
+        <v>0.03823970428194742</v>
+      </c>
+      <c r="G10">
+        <v>-0.009267388317824119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04046153257582043</v>
+        <v>-0.03654957986419789</v>
       </c>
       <c r="C11">
-        <v>-0.05496791035082897</v>
+        <v>0.05084406897340086</v>
       </c>
       <c r="D11">
-        <v>-0.01536953583283391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03499022259859668</v>
+      </c>
+      <c r="E11">
+        <v>-0.01652402995347034</v>
+      </c>
+      <c r="F11">
+        <v>0.06474208726259728</v>
+      </c>
+      <c r="G11">
+        <v>-0.0151135380002128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04007947912447378</v>
+        <v>-0.03751515265033677</v>
       </c>
       <c r="C12">
-        <v>-0.04919198655583113</v>
+        <v>0.04740496427360506</v>
       </c>
       <c r="D12">
-        <v>-0.004742276966284759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02718306031694704</v>
+      </c>
+      <c r="E12">
+        <v>-0.02424091048703246</v>
+      </c>
+      <c r="F12">
+        <v>0.06378850342042897</v>
+      </c>
+      <c r="G12">
+        <v>-0.01219251354215974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01328163374174821</v>
+        <v>-0.01211619611793014</v>
       </c>
       <c r="C13">
-        <v>-0.05406208761781568</v>
+        <v>0.04607863231948977</v>
       </c>
       <c r="D13">
-        <v>-0.01749922275500821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05831795516419824</v>
+      </c>
+      <c r="E13">
+        <v>-0.0825375968321644</v>
+      </c>
+      <c r="F13">
+        <v>0.09284149822715766</v>
+      </c>
+      <c r="G13">
+        <v>-0.01909611430058884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006095689633111296</v>
+        <v>-0.004471266521902364</v>
       </c>
       <c r="C14">
-        <v>-0.03786116292998549</v>
+        <v>0.03371955063709819</v>
       </c>
       <c r="D14">
-        <v>0.01309250430571383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02560364766612809</v>
+      </c>
+      <c r="E14">
+        <v>-0.0366443619159967</v>
+      </c>
+      <c r="F14">
+        <v>0.09071583990661369</v>
+      </c>
+      <c r="G14">
+        <v>0.005712991358099805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003667047118638577</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00525567331463249</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006966966831809696</v>
+      </c>
+      <c r="E15">
+        <v>-0.002424156623370412</v>
+      </c>
+      <c r="F15">
+        <v>0.005801264354210158</v>
+      </c>
+      <c r="G15">
+        <v>0.0002228981848800443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0366035049916761</v>
+        <v>-0.03423924112112573</v>
       </c>
       <c r="C16">
-        <v>-0.04805231325977054</v>
+        <v>0.04576437357130578</v>
       </c>
       <c r="D16">
-        <v>-0.01061647716251431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02818153970778604</v>
+      </c>
+      <c r="E16">
+        <v>-0.03103138862615337</v>
+      </c>
+      <c r="F16">
+        <v>0.06467384951852263</v>
+      </c>
+      <c r="G16">
+        <v>-0.0006083738389991916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02022634986300414</v>
+        <v>-0.01666782973824983</v>
       </c>
       <c r="C19">
-        <v>-0.06319494781676471</v>
+        <v>0.0505985561014258</v>
       </c>
       <c r="D19">
-        <v>-0.08247430638808866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09256878993644786</v>
+      </c>
+      <c r="E19">
+        <v>-0.09601575365266801</v>
+      </c>
+      <c r="F19">
+        <v>0.0672331218615847</v>
+      </c>
+      <c r="G19">
+        <v>0.02659354872866565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01590006387512693</v>
+        <v>-0.01349859782507204</v>
       </c>
       <c r="C20">
-        <v>-0.0481344705608489</v>
+        <v>0.04138253439990888</v>
       </c>
       <c r="D20">
-        <v>-0.01501936915640272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0402668600748974</v>
+      </c>
+      <c r="E20">
+        <v>-0.06790292044786821</v>
+      </c>
+      <c r="F20">
+        <v>0.07483607889509571</v>
+      </c>
+      <c r="G20">
+        <v>-0.005877861408844316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008958196428104311</v>
+        <v>-0.008986220383261993</v>
       </c>
       <c r="C21">
-        <v>-0.05006902349532705</v>
+        <v>0.04517649118580536</v>
       </c>
       <c r="D21">
-        <v>-0.03794149254508174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06751235851437964</v>
+      </c>
+      <c r="E21">
+        <v>-0.100335850371012</v>
+      </c>
+      <c r="F21">
+        <v>0.1147095428411283</v>
+      </c>
+      <c r="G21">
+        <v>-0.006110693460232897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006633494767993273</v>
+        <v>-0.002436691979641899</v>
       </c>
       <c r="C22">
-        <v>-0.0004454930767883777</v>
+        <v>0.02475952940902683</v>
       </c>
       <c r="D22">
-        <v>-0.001475161607609419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03974091809663938</v>
+      </c>
+      <c r="E22">
+        <v>-0.02968229718481407</v>
+      </c>
+      <c r="F22">
+        <v>0.01210920533585696</v>
+      </c>
+      <c r="G22">
+        <v>-0.03943824740702718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006633494767993273</v>
+        <v>-0.002507691306955592</v>
       </c>
       <c r="C23">
-        <v>-0.0004454930767883777</v>
+        <v>0.02490635655889537</v>
       </c>
       <c r="D23">
-        <v>-0.001475161607609419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0394102632299722</v>
+      </c>
+      <c r="E23">
+        <v>-0.02996454123867559</v>
+      </c>
+      <c r="F23">
+        <v>0.0119086976970068</v>
+      </c>
+      <c r="G23">
+        <v>-0.0396511792755587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03289969758699801</v>
+        <v>-0.03393046068601459</v>
       </c>
       <c r="C24">
-        <v>-0.05089908593123051</v>
+        <v>0.0534144249563508</v>
       </c>
       <c r="D24">
-        <v>-0.009121362850946836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02803341314098685</v>
+      </c>
+      <c r="E24">
+        <v>-0.02870851991963621</v>
+      </c>
+      <c r="F24">
+        <v>0.07374347296954736</v>
+      </c>
+      <c r="G24">
+        <v>-0.009226134532087508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0467008305988239</v>
+        <v>-0.04398009310822348</v>
       </c>
       <c r="C25">
-        <v>-0.06199038853768501</v>
+        <v>0.05744405549150085</v>
       </c>
       <c r="D25">
-        <v>-0.001091634492056178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02642276655606772</v>
+      </c>
+      <c r="E25">
+        <v>-0.02294511692117554</v>
+      </c>
+      <c r="F25">
+        <v>0.07539806246231094</v>
+      </c>
+      <c r="G25">
+        <v>-0.02559880039454246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01455333340071513</v>
+        <v>-0.01420657961499453</v>
       </c>
       <c r="C26">
-        <v>-0.01745517097374916</v>
+        <v>0.01827874180795687</v>
       </c>
       <c r="D26">
-        <v>-0.0001328661452007494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02498655177361955</v>
+      </c>
+      <c r="E26">
+        <v>-0.04029687860618572</v>
+      </c>
+      <c r="F26">
+        <v>0.06489184095727504</v>
+      </c>
+      <c r="G26">
+        <v>0.01366039583544585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09664973836310936</v>
+        <v>-0.1347822160309486</v>
       </c>
       <c r="C28">
-        <v>0.2365421125994899</v>
+        <v>-0.2469398309352182</v>
       </c>
       <c r="D28">
-        <v>0.006625159056556112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01880961058668592</v>
+      </c>
+      <c r="E28">
+        <v>-0.05824861384476929</v>
+      </c>
+      <c r="F28">
+        <v>0.05640678519974914</v>
+      </c>
+      <c r="G28">
+        <v>-0.02046290170061444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00633630278443056</v>
+        <v>-0.005821841249980086</v>
       </c>
       <c r="C29">
-        <v>-0.03073030484131314</v>
+        <v>0.02945172530715965</v>
       </c>
       <c r="D29">
-        <v>0.01722511109149679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01947892773578821</v>
+      </c>
+      <c r="E29">
+        <v>-0.03762962611083006</v>
+      </c>
+      <c r="F29">
+        <v>0.08525810501099332</v>
+      </c>
+      <c r="G29">
+        <v>-0.007884216780629331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04614848864868812</v>
+        <v>-0.04220998972695515</v>
       </c>
       <c r="C30">
-        <v>-0.06444425534835191</v>
+        <v>0.06508328315039147</v>
       </c>
       <c r="D30">
-        <v>-0.07732296425471545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1094804977327756</v>
+      </c>
+      <c r="E30">
+        <v>-0.06062760037296126</v>
+      </c>
+      <c r="F30">
+        <v>0.08295006082439352</v>
+      </c>
+      <c r="G30">
+        <v>0.01356499391180583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05319083660007001</v>
+        <v>-0.05554416632985412</v>
       </c>
       <c r="C31">
-        <v>-0.03889620637658328</v>
+        <v>0.05747045062478191</v>
       </c>
       <c r="D31">
-        <v>0.02717812442567923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01088515338353522</v>
+      </c>
+      <c r="E31">
+        <v>-0.06212079558313421</v>
+      </c>
+      <c r="F31">
+        <v>0.06841805255315081</v>
+      </c>
+      <c r="G31">
+        <v>-0.04692560410519901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002473707014702836</v>
+        <v>-0.00426609105088738</v>
       </c>
       <c r="C32">
-        <v>-0.0367930985349139</v>
+        <v>0.03472029406888556</v>
       </c>
       <c r="D32">
-        <v>-0.04022364588082011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05375991131313735</v>
+      </c>
+      <c r="E32">
+        <v>-0.04164533906267388</v>
+      </c>
+      <c r="F32">
+        <v>0.06416239376764842</v>
+      </c>
+      <c r="G32">
+        <v>0.01063779513441114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02636100280940586</v>
+        <v>-0.02447737393860508</v>
       </c>
       <c r="C33">
-        <v>-0.05995166088956639</v>
+        <v>0.05502921782649463</v>
       </c>
       <c r="D33">
-        <v>-0.04786981799228197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08146248667909596</v>
+      </c>
+      <c r="E33">
+        <v>-0.07202920848530411</v>
+      </c>
+      <c r="F33">
+        <v>0.113747038480468</v>
+      </c>
+      <c r="G33">
+        <v>-0.01948270324188759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0451103574994988</v>
+        <v>-0.0414121409487341</v>
       </c>
       <c r="C34">
-        <v>-0.0656250566659921</v>
+        <v>0.06439184958607753</v>
       </c>
       <c r="D34">
-        <v>-0.01299494627693862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03527501034842549</v>
+      </c>
+      <c r="E34">
+        <v>-0.003446722026313627</v>
+      </c>
+      <c r="F34">
+        <v>0.07607922445426134</v>
+      </c>
+      <c r="G34">
+        <v>-0.01021019607956606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01347616594931693</v>
+        <v>-0.01313110484262287</v>
       </c>
       <c r="C36">
-        <v>-0.01431560347497557</v>
+        <v>0.0130922075173314</v>
       </c>
       <c r="D36">
-        <v>0.002934449484479502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02680839426475207</v>
+      </c>
+      <c r="E36">
+        <v>-0.04751948099125732</v>
+      </c>
+      <c r="F36">
+        <v>0.07152936090045459</v>
+      </c>
+      <c r="G36">
+        <v>-0.009349436982652629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03047054255259858</v>
+        <v>-0.02441203996719208</v>
       </c>
       <c r="C38">
-        <v>-0.02938965457611548</v>
+        <v>0.02398386824280174</v>
       </c>
       <c r="D38">
-        <v>0.004050304107674997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02806945834081303</v>
+      </c>
+      <c r="E38">
+        <v>-0.04475280904799834</v>
+      </c>
+      <c r="F38">
+        <v>0.05737079002869231</v>
+      </c>
+      <c r="G38">
+        <v>-0.001444917109723764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04435595649722262</v>
+        <v>-0.03995919792462278</v>
       </c>
       <c r="C39">
-        <v>-0.07090185690939044</v>
+        <v>0.06817646095559064</v>
       </c>
       <c r="D39">
-        <v>-0.02116493505960631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05558024242691863</v>
+      </c>
+      <c r="E39">
+        <v>-0.03300950559392393</v>
+      </c>
+      <c r="F39">
+        <v>0.08474599631903862</v>
+      </c>
+      <c r="G39">
+        <v>0.01380896608722444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01293290481192519</v>
+        <v>-0.01388129035623023</v>
       </c>
       <c r="C40">
-        <v>-0.05295172516142811</v>
+        <v>0.03993269164743117</v>
       </c>
       <c r="D40">
-        <v>-0.02282972071344652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.038384632106495</v>
+      </c>
+      <c r="E40">
+        <v>-0.07324625778505903</v>
+      </c>
+      <c r="F40">
+        <v>0.06855517364225527</v>
+      </c>
+      <c r="G40">
+        <v>-0.03896264822899289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01882384544976342</v>
+        <v>-0.01807906833146072</v>
       </c>
       <c r="C41">
-        <v>-0.005602595800835167</v>
+        <v>0.008021495513167165</v>
       </c>
       <c r="D41">
-        <v>0.001931520503749224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01499501184457013</v>
+      </c>
+      <c r="E41">
+        <v>-0.04986028907421294</v>
+      </c>
+      <c r="F41">
+        <v>0.05987148118291467</v>
+      </c>
+      <c r="G41">
+        <v>-0.00152428870349408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03553442525974254</v>
+        <v>-0.02844044447498457</v>
       </c>
       <c r="C43">
-        <v>-0.02424525160302244</v>
+        <v>0.02252751769696413</v>
       </c>
       <c r="D43">
-        <v>-0.02326958276393201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04141395382067965</v>
+      </c>
+      <c r="E43">
+        <v>-0.05982312441631777</v>
+      </c>
+      <c r="F43">
+        <v>0.06920831879728018</v>
+      </c>
+      <c r="G43">
+        <v>-0.02102882874672343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01286663346479731</v>
+        <v>-0.01456941318154311</v>
       </c>
       <c r="C44">
-        <v>-0.06543374001813829</v>
+        <v>0.05146060739050481</v>
       </c>
       <c r="D44">
-        <v>-0.01448644071574136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04258437096039857</v>
+      </c>
+      <c r="E44">
+        <v>-0.07961854967065309</v>
+      </c>
+      <c r="F44">
+        <v>0.07179829873849897</v>
+      </c>
+      <c r="G44">
+        <v>0.007316867398448291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004630061616026328</v>
+        <v>-0.007738775369229627</v>
       </c>
       <c r="C46">
-        <v>-0.02294028621017027</v>
+        <v>0.02704656193608649</v>
       </c>
       <c r="D46">
-        <v>0.0202224052174962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01191827593115263</v>
+      </c>
+      <c r="E46">
+        <v>-0.0474137369879741</v>
+      </c>
+      <c r="F46">
+        <v>0.09725226252147681</v>
+      </c>
+      <c r="G46">
+        <v>-0.0001261637043403254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08173276507348759</v>
+        <v>-0.08779438799516326</v>
       </c>
       <c r="C47">
-        <v>-0.06911556768411715</v>
+        <v>0.0800250034782068</v>
       </c>
       <c r="D47">
-        <v>0.02504495072850851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01560404025791568</v>
+      </c>
+      <c r="E47">
+        <v>-0.06596816144137616</v>
+      </c>
+      <c r="F47">
+        <v>0.07370255382492033</v>
+      </c>
+      <c r="G47">
+        <v>-0.05105539108590619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01800371681197508</v>
+        <v>-0.01559752751684481</v>
       </c>
       <c r="C48">
-        <v>-0.01352129263914871</v>
+        <v>0.01703537834467244</v>
       </c>
       <c r="D48">
-        <v>0.01440542076030574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01711489250613762</v>
+      </c>
+      <c r="E48">
+        <v>-0.05888474254670804</v>
+      </c>
+      <c r="F48">
+        <v>0.08774924029696739</v>
+      </c>
+      <c r="G48">
+        <v>-0.007730084186333917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07871962832729261</v>
+        <v>-0.07106777449348378</v>
       </c>
       <c r="C50">
-        <v>-0.07492070114472174</v>
+        <v>0.07331815959558838</v>
       </c>
       <c r="D50">
-        <v>0.02701148049201505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002559035759265098</v>
+      </c>
+      <c r="E50">
+        <v>-0.06827278959712399</v>
+      </c>
+      <c r="F50">
+        <v>0.05438623843574589</v>
+      </c>
+      <c r="G50">
+        <v>-0.07036997550163016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01477268121145356</v>
+        <v>-0.01107626752058163</v>
       </c>
       <c r="C51">
-        <v>-0.05069424098440896</v>
+        <v>0.03411207578975151</v>
       </c>
       <c r="D51">
-        <v>-0.02468340996899821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05022549471217353</v>
+      </c>
+      <c r="E51">
+        <v>-0.03655326463004948</v>
+      </c>
+      <c r="F51">
+        <v>0.07417314562882456</v>
+      </c>
+      <c r="G51">
+        <v>0.0203336502556882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07991076523616802</v>
+        <v>-0.09371387236307284</v>
       </c>
       <c r="C53">
-        <v>-0.07756948751713905</v>
+        <v>0.08694223514306983</v>
       </c>
       <c r="D53">
-        <v>0.0375172703003924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03871016871061519</v>
+      </c>
+      <c r="E53">
+        <v>-0.06379420815520019</v>
+      </c>
+      <c r="F53">
+        <v>0.0846821109515859</v>
+      </c>
+      <c r="G53">
+        <v>-0.06405101751420419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02886766159327417</v>
+        <v>-0.02760232163153283</v>
       </c>
       <c r="C54">
-        <v>-0.02830787795863307</v>
+        <v>0.02806434806815199</v>
       </c>
       <c r="D54">
-        <v>-0.002278909379944573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03040525466846256</v>
+      </c>
+      <c r="E54">
+        <v>-0.04578201223470833</v>
+      </c>
+      <c r="F54">
+        <v>0.09510747923318259</v>
+      </c>
+      <c r="G54">
+        <v>-0.008594779131077774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07390323581436811</v>
+        <v>-0.08517904121355886</v>
       </c>
       <c r="C55">
-        <v>-0.05919671018901913</v>
+        <v>0.07004709715596651</v>
       </c>
       <c r="D55">
-        <v>0.04655156711184061</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04725214767244578</v>
+      </c>
+      <c r="E55">
+        <v>-0.04953595438962811</v>
+      </c>
+      <c r="F55">
+        <v>0.05939412941380309</v>
+      </c>
+      <c r="G55">
+        <v>-0.05225526614032964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1426463142465903</v>
+        <v>-0.146988470926188</v>
       </c>
       <c r="C56">
-        <v>-0.09560641310514587</v>
+        <v>0.1049191589849096</v>
       </c>
       <c r="D56">
-        <v>0.04113470393794489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04695648694657063</v>
+      </c>
+      <c r="E56">
+        <v>-0.05244656468705265</v>
+      </c>
+      <c r="F56">
+        <v>0.04439371747681342</v>
+      </c>
+      <c r="G56">
+        <v>-0.05756077373435748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00104468411452506</v>
+        <v>-0.0004482213095861013</v>
       </c>
       <c r="C57">
-        <v>0.00204901865199232</v>
+        <v>-0.0009926064867467046</v>
       </c>
       <c r="D57">
-        <v>-0.01440346396062965</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01123734993395654</v>
+      </c>
+      <c r="E57">
+        <v>-0.008362808429647995</v>
+      </c>
+      <c r="F57">
+        <v>0.006273166966735779</v>
+      </c>
+      <c r="G57">
+        <v>0.0004529933608505569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05083139234039226</v>
+        <v>-0.03071340661330724</v>
       </c>
       <c r="C58">
-        <v>-0.03133779826135098</v>
+        <v>0.03134193923371948</v>
       </c>
       <c r="D58">
-        <v>-0.6981487255265233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4194558455787757</v>
+      </c>
+      <c r="E58">
+        <v>-0.6462912981947673</v>
+      </c>
+      <c r="F58">
+        <v>-0.5544857813794275</v>
+      </c>
+      <c r="G58">
+        <v>0.07137779778430201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.135468996241313</v>
+        <v>-0.1441633965557478</v>
       </c>
       <c r="C59">
-        <v>0.1913444296423541</v>
+        <v>-0.1862423928869851</v>
       </c>
       <c r="D59">
-        <v>-0.0213214437219117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02936813012686695</v>
+      </c>
+      <c r="E59">
+        <v>-0.02636926524714492</v>
+      </c>
+      <c r="F59">
+        <v>0.01906060366275573</v>
+      </c>
+      <c r="G59">
+        <v>0.02935934877062817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3075967444077225</v>
+        <v>-0.2827325225737348</v>
       </c>
       <c r="C60">
-        <v>-0.09907118950746356</v>
+        <v>0.09885288519926271</v>
       </c>
       <c r="D60">
-        <v>-0.1342268078603575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2197525601057507</v>
+      </c>
+      <c r="E60">
+        <v>0.2741205016472132</v>
+      </c>
+      <c r="F60">
+        <v>-0.0918289072184223</v>
+      </c>
+      <c r="G60">
+        <v>-0.04865588595702324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04178105838773569</v>
+        <v>-0.04107124562570021</v>
       </c>
       <c r="C61">
-        <v>-0.06572193789113673</v>
+        <v>0.06255288799639074</v>
       </c>
       <c r="D61">
-        <v>-0.01595106029744939</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04680417977136833</v>
+      </c>
+      <c r="E61">
+        <v>-0.03699783621232688</v>
+      </c>
+      <c r="F61">
+        <v>0.07520275069623859</v>
+      </c>
+      <c r="G61">
+        <v>-0.01203775129019836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01504659382400799</v>
+        <v>-0.01505602124486138</v>
       </c>
       <c r="C63">
-        <v>-0.0328110991255583</v>
+        <v>0.03163154006449447</v>
       </c>
       <c r="D63">
-        <v>0.009326660608969474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02158474580712468</v>
+      </c>
+      <c r="E63">
+        <v>-0.05105477825941488</v>
+      </c>
+      <c r="F63">
+        <v>0.06725212381890888</v>
+      </c>
+      <c r="G63">
+        <v>-0.02834204139070518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0481577926262924</v>
+        <v>-0.05598386104454069</v>
       </c>
       <c r="C64">
-        <v>-0.04372944879551188</v>
+        <v>0.05553742612114919</v>
       </c>
       <c r="D64">
-        <v>-0.003408217672996791</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008922178659417695</v>
+      </c>
+      <c r="E64">
+        <v>-0.03352097884667227</v>
+      </c>
+      <c r="F64">
+        <v>0.08439870245034933</v>
+      </c>
+      <c r="G64">
+        <v>-0.01059293997243813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08671318633488602</v>
+        <v>-0.07033591586701349</v>
       </c>
       <c r="C65">
-        <v>-0.03587603749249773</v>
+        <v>0.03302617677872911</v>
       </c>
       <c r="D65">
-        <v>-0.05406792367194492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08744206545410485</v>
+      </c>
+      <c r="E65">
+        <v>-0.03781277558531602</v>
+      </c>
+      <c r="F65">
+        <v>0.005077860341762593</v>
+      </c>
+      <c r="G65">
+        <v>-0.002381015583230836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06170216916664813</v>
+        <v>-0.05260802058975689</v>
       </c>
       <c r="C66">
-        <v>-0.1002068460660406</v>
+        <v>0.08946790347712544</v>
       </c>
       <c r="D66">
-        <v>-0.04447083656331744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08268856895558342</v>
+      </c>
+      <c r="E66">
+        <v>-0.03896054561562898</v>
+      </c>
+      <c r="F66">
+        <v>0.08621820649435695</v>
+      </c>
+      <c r="G66">
+        <v>-0.003236567571490704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05267859880351833</v>
+        <v>-0.04641022149574616</v>
       </c>
       <c r="C67">
-        <v>-0.03433967315773515</v>
+        <v>0.03036993720294873</v>
       </c>
       <c r="D67">
-        <v>0.006593002827411421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01446496932364447</v>
+      </c>
+      <c r="E67">
+        <v>-0.02499333494896171</v>
+      </c>
+      <c r="F67">
+        <v>0.04757872811879812</v>
+      </c>
+      <c r="G67">
+        <v>-0.007955293440358219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1311782674336648</v>
+        <v>-0.1501083375942606</v>
       </c>
       <c r="C68">
-        <v>0.281810907579398</v>
+        <v>-0.2491134433856799</v>
       </c>
       <c r="D68">
-        <v>0.01306328787374129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01767793299129362</v>
+      </c>
+      <c r="E68">
+        <v>-0.04303982360572361</v>
+      </c>
+      <c r="F68">
+        <v>0.01542101900201168</v>
+      </c>
+      <c r="G68">
+        <v>-0.01035473989107677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08866605133418035</v>
+        <v>-0.08750661849720281</v>
       </c>
       <c r="C69">
-        <v>-0.0678392843093798</v>
+        <v>0.08676796513261002</v>
       </c>
       <c r="D69">
-        <v>0.036054019150211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007308323722124014</v>
+      </c>
+      <c r="E69">
+        <v>-0.04917056963972989</v>
+      </c>
+      <c r="F69">
+        <v>0.0900905932830435</v>
+      </c>
+      <c r="G69">
+        <v>-0.02968843727194146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1211727416842028</v>
+        <v>-0.1423238881971707</v>
       </c>
       <c r="C71">
-        <v>0.2479871469538544</v>
+        <v>-0.2358590498439553</v>
       </c>
       <c r="D71">
-        <v>-0.02234660824682183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01251469429144233</v>
+      </c>
+      <c r="E71">
+        <v>-0.06316054259193056</v>
+      </c>
+      <c r="F71">
+        <v>0.05527699821755423</v>
+      </c>
+      <c r="G71">
+        <v>-0.03750338677716116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08782944803491195</v>
+        <v>-0.09794275336699555</v>
       </c>
       <c r="C72">
-        <v>-0.05362530554560957</v>
+        <v>0.0570768636186696</v>
       </c>
       <c r="D72">
-        <v>-0.005020094713600198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02938835906093417</v>
+      </c>
+      <c r="E72">
+        <v>-0.01488818295372222</v>
+      </c>
+      <c r="F72">
+        <v>0.06979840514192404</v>
+      </c>
+      <c r="G72">
+        <v>-0.03447127173905463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.408983447427442</v>
+        <v>-0.347587422146409</v>
       </c>
       <c r="C73">
-        <v>-0.06645708373872776</v>
+        <v>0.0732811671300696</v>
       </c>
       <c r="D73">
-        <v>-0.3449313793065418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4569888666342564</v>
+      </c>
+      <c r="E73">
+        <v>0.4841906407058191</v>
+      </c>
+      <c r="F73">
+        <v>-0.2426620581728267</v>
+      </c>
+      <c r="G73">
+        <v>-0.103128030603499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1057824577909288</v>
+        <v>-0.1105847496601239</v>
       </c>
       <c r="C74">
-        <v>-0.09798887200660039</v>
+        <v>0.09667848713751609</v>
       </c>
       <c r="D74">
-        <v>0.0188687605431935</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02934725325531871</v>
+      </c>
+      <c r="E74">
+        <v>-0.06538679205892016</v>
+      </c>
+      <c r="F74">
+        <v>0.04697509715749205</v>
+      </c>
+      <c r="G74">
+        <v>-0.0725813010020897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2520595936726713</v>
+        <v>-0.2576741231084364</v>
       </c>
       <c r="C75">
-        <v>-0.1071269101874809</v>
+        <v>0.1297365206227009</v>
       </c>
       <c r="D75">
-        <v>0.08559996015998016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1258531885684649</v>
+      </c>
+      <c r="E75">
+        <v>-0.07254716201002243</v>
+      </c>
+      <c r="F75">
+        <v>0.01788526654955159</v>
+      </c>
+      <c r="G75">
+        <v>-0.07405155009640094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1111364952749263</v>
+        <v>-0.1269622991004889</v>
       </c>
       <c r="C76">
-        <v>-0.09086126957921623</v>
+        <v>0.09908818977074507</v>
       </c>
       <c r="D76">
-        <v>0.04378274547118646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05626303088670735</v>
+      </c>
+      <c r="E76">
+        <v>-0.07811955301708215</v>
+      </c>
+      <c r="F76">
+        <v>0.06805057229571622</v>
+      </c>
+      <c r="G76">
+        <v>-0.05692343799021059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07703847794183391</v>
+        <v>-0.06315161976013525</v>
       </c>
       <c r="C77">
-        <v>-0.06506033977646629</v>
+        <v>0.0748868286233583</v>
       </c>
       <c r="D77">
-        <v>-0.05557109405493577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06576366359828442</v>
+      </c>
+      <c r="E77">
+        <v>-0.09421505824484673</v>
+      </c>
+      <c r="F77">
+        <v>0.1086168812062414</v>
+      </c>
+      <c r="G77">
+        <v>0.1348872661483365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04690438222264177</v>
+        <v>-0.04404360476091517</v>
       </c>
       <c r="C78">
-        <v>-0.05163601796809113</v>
+        <v>0.06047364581460606</v>
       </c>
       <c r="D78">
-        <v>-0.02627589996946907</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06655926897412416</v>
+      </c>
+      <c r="E78">
+        <v>-0.04524728773443437</v>
+      </c>
+      <c r="F78">
+        <v>0.08476961678418014</v>
+      </c>
+      <c r="G78">
+        <v>-0.00692819905619414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02743675989623861</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04130189395089241</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06027992384831037</v>
+      </c>
+      <c r="E79">
+        <v>-0.06418136486152985</v>
+      </c>
+      <c r="F79">
+        <v>0.03570140046946021</v>
+      </c>
+      <c r="G79">
+        <v>-0.07816781199475611</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04447974462902801</v>
+        <v>-0.03423265916384863</v>
       </c>
       <c r="C80">
-        <v>-0.05624950080903456</v>
+        <v>0.05569925924383937</v>
       </c>
       <c r="D80">
-        <v>-0.03082409220593615</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04528401322617034</v>
+      </c>
+      <c r="E80">
+        <v>-0.01525813271655771</v>
+      </c>
+      <c r="F80">
+        <v>0.03033511459834158</v>
+      </c>
+      <c r="G80">
+        <v>0.04726627715654853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1398225468231494</v>
+        <v>-0.1405894403272063</v>
       </c>
       <c r="C81">
-        <v>-0.08155183977218483</v>
+        <v>0.09513198835292172</v>
       </c>
       <c r="D81">
-        <v>0.06832746922041563</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09947756753698887</v>
+      </c>
+      <c r="E81">
+        <v>-0.086983089892154</v>
+      </c>
+      <c r="F81">
+        <v>0.009692368513807451</v>
+      </c>
+      <c r="G81">
+        <v>-0.05210728033766802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1611083185198936</v>
+        <v>-0.2039028104721398</v>
       </c>
       <c r="C82">
-        <v>-0.0758017302600366</v>
+        <v>0.1402079932254933</v>
       </c>
       <c r="D82">
-        <v>0.1574335301176742</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2331626560424061</v>
+      </c>
+      <c r="E82">
+        <v>-0.008757092062407887</v>
+      </c>
+      <c r="F82">
+        <v>0.1058365303118143</v>
+      </c>
+      <c r="G82">
+        <v>-0.0529798328077481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04062517444227066</v>
+        <v>-0.02858154415877611</v>
       </c>
       <c r="C83">
-        <v>-0.02854542978501423</v>
+        <v>0.0429830543076585</v>
       </c>
       <c r="D83">
-        <v>-0.03243196635187547</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03452901048193861</v>
+      </c>
+      <c r="E83">
+        <v>-0.01991022871108545</v>
+      </c>
+      <c r="F83">
+        <v>0.04021828441875941</v>
+      </c>
+      <c r="G83">
+        <v>0.02102511662619207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.843115364056238e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8.337961678064131e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0002077921146376307</v>
+      </c>
+      <c r="E84">
+        <v>-4.34634064025063e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0007202474774939555</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004278624883521311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2174124173612087</v>
+        <v>-0.2030687298266628</v>
       </c>
       <c r="C85">
-        <v>-0.1071170699324443</v>
+        <v>0.1162438924514685</v>
       </c>
       <c r="D85">
-        <v>0.1128932760752658</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09657877536639776</v>
+      </c>
+      <c r="E85">
+        <v>-0.0008933703963096005</v>
+      </c>
+      <c r="F85">
+        <v>-0.006877448904348095</v>
+      </c>
+      <c r="G85">
+        <v>-0.1269024572322947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009305338691413785</v>
+        <v>-0.0105294277455979</v>
       </c>
       <c r="C86">
-        <v>-0.0404671892170483</v>
+        <v>0.03087964690259665</v>
       </c>
       <c r="D86">
-        <v>-0.04041459792241454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06508076632716778</v>
+      </c>
+      <c r="E86">
+        <v>-0.06465336201767759</v>
+      </c>
+      <c r="F86">
+        <v>0.1238891961063546</v>
+      </c>
+      <c r="G86">
+        <v>0.0154770257846225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02374295106161265</v>
+        <v>-0.02252275968209478</v>
       </c>
       <c r="C87">
-        <v>-0.01299915711388848</v>
+        <v>0.02035993440090366</v>
       </c>
       <c r="D87">
-        <v>-0.09287470846122675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09160563086197639</v>
+      </c>
+      <c r="E87">
+        <v>-0.111392746278572</v>
+      </c>
+      <c r="F87">
+        <v>0.06586813888340326</v>
+      </c>
+      <c r="G87">
+        <v>0.04155963660236243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.10481294005253</v>
+        <v>-0.09318508832309465</v>
       </c>
       <c r="C88">
-        <v>-0.06988760805235754</v>
+        <v>0.0629130157211867</v>
       </c>
       <c r="D88">
-        <v>0.02476516257093651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007704194085657607</v>
+      </c>
+      <c r="E88">
+        <v>-0.04398417636868548</v>
+      </c>
+      <c r="F88">
+        <v>0.07034365448585733</v>
+      </c>
+      <c r="G88">
+        <v>0.02756865960653787</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1891096868147686</v>
+        <v>-0.2187595300458923</v>
       </c>
       <c r="C89">
-        <v>0.3776104443102491</v>
+        <v>-0.3800645980379947</v>
       </c>
       <c r="D89">
-        <v>0.02086248747918338</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008642413355465955</v>
+      </c>
+      <c r="E89">
+        <v>-0.06299828363430438</v>
+      </c>
+      <c r="F89">
+        <v>0.07627243086977846</v>
+      </c>
+      <c r="G89">
+        <v>0.0636928790558861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1813274208361541</v>
+        <v>-0.1988534706414991</v>
       </c>
       <c r="C90">
-        <v>0.3351262789973716</v>
+        <v>-0.3142982814296499</v>
       </c>
       <c r="D90">
-        <v>0.0180814442387897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01324688470775726</v>
+      </c>
+      <c r="E90">
+        <v>-0.0720622548567607</v>
+      </c>
+      <c r="F90">
+        <v>0.04187800747703688</v>
+      </c>
+      <c r="G90">
+        <v>0.0132760775469514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1878410613397173</v>
+        <v>-0.1859881055198591</v>
       </c>
       <c r="C91">
-        <v>-0.1291804664630197</v>
+        <v>0.1401797690929251</v>
       </c>
       <c r="D91">
-        <v>0.0828880535547393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1060276197008657</v>
+      </c>
+      <c r="E91">
+        <v>-0.06402605340689642</v>
+      </c>
+      <c r="F91">
+        <v>0.03662016975911512</v>
+      </c>
+      <c r="G91">
+        <v>-0.05813858296232623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1678999348902006</v>
+        <v>-0.1803381255402681</v>
       </c>
       <c r="C92">
-        <v>0.2821817914566049</v>
+        <v>-0.2860505735078598</v>
       </c>
       <c r="D92">
-        <v>0.001859809589612651</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006361273757795834</v>
+      </c>
+      <c r="E92">
+        <v>-0.07268611398831872</v>
+      </c>
+      <c r="F92">
+        <v>0.08330119799985317</v>
+      </c>
+      <c r="G92">
+        <v>0.00952620014441404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2047687176889871</v>
+        <v>-0.2224846731348487</v>
       </c>
       <c r="C93">
-        <v>0.3351901782003112</v>
+        <v>-0.3194584130305704</v>
       </c>
       <c r="D93">
-        <v>0.0147254151561031</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006500096880611432</v>
+      </c>
+      <c r="E93">
+        <v>-0.04833382546607166</v>
+      </c>
+      <c r="F93">
+        <v>0.04122141786110182</v>
+      </c>
+      <c r="G93">
+        <v>-0.02693976503073727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3408685097872115</v>
+        <v>-0.3448780844503401</v>
       </c>
       <c r="C94">
-        <v>-0.1528616613716266</v>
+        <v>0.1814262438638427</v>
       </c>
       <c r="D94">
-        <v>0.4619721222578752</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5055693366790324</v>
+      </c>
+      <c r="E94">
+        <v>-0.04269111060684797</v>
+      </c>
+      <c r="F94">
+        <v>-0.4525961883028437</v>
+      </c>
+      <c r="G94">
+        <v>0.3273907409756449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1102389888977363</v>
+        <v>-0.08492332025703467</v>
       </c>
       <c r="C95">
-        <v>-0.07668462797368036</v>
+        <v>0.06632704739122226</v>
       </c>
       <c r="D95">
-        <v>-0.1218017274822531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1649481541490847</v>
+      </c>
+      <c r="E95">
+        <v>0.1068143260669918</v>
+      </c>
+      <c r="F95">
+        <v>0.22588200897428</v>
+      </c>
+      <c r="G95">
+        <v>0.8661363353779423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1959047334884652</v>
+        <v>-0.188056156349476</v>
       </c>
       <c r="C98">
-        <v>-0.01964092563035653</v>
+        <v>0.03862229954303387</v>
       </c>
       <c r="D98">
-        <v>-0.1307846841609009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1830261442293184</v>
+      </c>
+      <c r="E98">
+        <v>0.1552362251511186</v>
+      </c>
+      <c r="F98">
+        <v>-0.03457407796259613</v>
+      </c>
+      <c r="G98">
+        <v>-0.0982825374562397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006285591208775415</v>
+        <v>-0.005874045835789202</v>
       </c>
       <c r="C101">
-        <v>-0.03074405828729435</v>
+        <v>0.02919368177303527</v>
       </c>
       <c r="D101">
-        <v>0.01783097419135083</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01895019528975993</v>
+      </c>
+      <c r="E101">
+        <v>-0.03829257099264851</v>
+      </c>
+      <c r="F101">
+        <v>0.08494938388503277</v>
+      </c>
+      <c r="G101">
+        <v>-0.006795412107070831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1213860362967394</v>
+        <v>-0.1249415575520191</v>
       </c>
       <c r="C102">
-        <v>-0.07433429188790533</v>
+        <v>0.09821194768012761</v>
       </c>
       <c r="D102">
-        <v>0.02690379310035082</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04616727583763397</v>
+      </c>
+      <c r="E102">
+        <v>0.001719075221569752</v>
+      </c>
+      <c r="F102">
+        <v>0.04569014668477205</v>
+      </c>
+      <c r="G102">
+        <v>-0.01817264170227229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
